--- a/biology/Botanique/Tridactyle_anthomaniaca/Tridactyle_anthomaniaca.xlsx
+++ b/biology/Botanique/Tridactyle_anthomaniaca/Tridactyle_anthomaniaca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tridactyle anthomaniaca[2] (Rchb. f.) Summerh. est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et du genre Tridactyle, endémique d'Afrique centrale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tridactyle anthomaniaca (Rchb. f.) Summerh. est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et du genre Tridactyle, endémique d'Afrique centrale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tridactyle anthomaniaca est une herbe épiphyte avec une tige de 41 cm de long pendante et ramifiée avec des racines lisses. Les feuilles sont nombreuses de forme ovale à oblongue, espacées de 5 à 6 mm avec une base tordue. Les inflorescences sont très courtes opposées aux feuilles. Les fleurs sont d'une couleur vert blanchâtre[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tridactyle anthomaniaca est une herbe épiphyte avec une tige de 41 cm de long pendante et ramifiée avec des racines lisses. Les feuilles sont nombreuses de forme ovale à oblongue, espacées de 5 à 6 mm avec une base tordue. Les inflorescences sont très courtes opposées aux feuilles. Les fleurs sont d'une couleur vert blanchâtre. 
 			Tige.
 			Inflorescence.
 			Tépales.
@@ -545,10 +559,12 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tridactyle anthomaniaca pousse dans les forêts à feuilles persistantes à une altitude de 1 000-1 100 m. C'est une plante épiphyte qui pousse au-dessus de la canopée dans les forêts du Cameroun à la Guinée équatoriale (Région continentale[3]).
-Au Cameroun, la sous-espèce Tridactyle anthomaniaca subsp. nana P.J.Cribb &amp; Stévart a été observée sur deux sites, dans le sanctuaire de faune sauvage de Banyang-Mbo , dans la région du Sud-Ouest, et à Akom II, dans la Région du Sud[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tridactyle anthomaniaca pousse dans les forêts à feuilles persistantes à une altitude de 1 000-1 100 m. C'est une plante épiphyte qui pousse au-dessus de la canopée dans les forêts du Cameroun à la Guinée équatoriale (Région continentale).
+Au Cameroun, la sous-espèce Tridactyle anthomaniaca subsp. nana P.J.Cribb &amp; Stévart a été observée sur deux sites, dans le sanctuaire de faune sauvage de Banyang-Mbo , dans la région du Sud-Ouest, et à Akom II, dans la Région du Sud.
 </t>
         </is>
       </c>
@@ -577,12 +593,14 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 décembre 2017)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 décembre 2017) :
 sous-espèce Tridactyle anthomaniaca subsp. anthomaniaca
 sous-espèce Tridactyle anthomaniaca subsp. nana P.J.Cribb &amp; Stévart
-Selon Tropicos                                           (17 décembre 2017)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (17 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Tridactyle anthomaniaca subsp. anthomaniaca
 sous-espèce Tridactyle anthomaniaca subsp. nana P.J. Cribb &amp; Stévart</t>
         </is>
